--- a/data/trans_orig/P19C08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3869A2B2-9FA8-4D39-849C-3C1983441A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D7A19D1-7F55-459C-B2A2-8E811001A574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{955C3A95-788F-4DF2-B0A6-6E2D97F16E24}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F35F99B-DCD8-416F-869C-7ABE7FEBFFF0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="253">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -80,730 +80,724 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,32%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>99,2%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
   </si>
   <si>
     <t>98,81%</t>
   </si>
   <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>98,97%</t>
   </si>
   <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2015 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>99,96%</t>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>99,97%</t>
   </si>
   <si>
     <t>99,22%</t>
   </si>
   <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>98,58%</t>
-  </si>
-  <si>
     <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC927DF2-9A61-490D-B0DD-368A56CBA885}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE13AC5-08DE-450D-87A8-6517776530D6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1360,7 +1354,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -1375,13 +1369,13 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>361</v>
@@ -1390,13 +1384,13 @@
         <v>358449</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>394</v>
@@ -1405,13 +1399,13 @@
         <v>375264</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>755</v>
@@ -1420,13 +1414,13 @@
         <v>733714</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1441,13 +1435,13 @@
         <v>359401</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
         <v>395</v>
@@ -1456,13 +1450,13 @@
         <v>376252</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>757</v>
@@ -1471,18 +1465,18 @@
         <v>735654</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1494,13 +1488,13 @@
         <v>2865</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -1509,13 +1503,13 @@
         <v>3531</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -1524,19 +1518,19 @@
         <v>6396</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>551</v>
@@ -1545,13 +1539,13 @@
         <v>572916</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -1560,13 +1554,13 @@
         <v>544177</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>1067</v>
@@ -1575,13 +1569,13 @@
         <v>1117093</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,13 +1590,13 @@
         <v>575781</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>519</v>
@@ -1611,13 +1605,13 @@
         <v>547708</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>1073</v>
@@ -1626,18 +1620,18 @@
         <v>1123489</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1649,13 +1643,13 @@
         <v>1767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1664,13 +1658,13 @@
         <v>2150</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1679,19 +1673,19 @@
         <v>3917</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>484</v>
@@ -1700,13 +1694,13 @@
         <v>501166</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>573</v>
@@ -1715,13 +1709,13 @@
         <v>601415</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>1057</v>
@@ -1730,13 +1724,13 @@
         <v>1102580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,13 +1745,13 @@
         <v>502933</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
         <v>575</v>
@@ -1766,13 +1760,13 @@
         <v>603565</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
         <v>1061</v>
@@ -1781,18 +1775,18 @@
         <v>1106497</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1804,13 +1798,13 @@
         <v>1818</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1819,13 +1813,13 @@
         <v>1975</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1834,19 +1828,19 @@
         <v>3793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>378</v>
@@ -1855,13 +1849,13 @@
         <v>402930</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
         <v>427</v>
@@ -1870,13 +1864,13 @@
         <v>437210</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
         <v>805</v>
@@ -1885,13 +1879,13 @@
         <v>840140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,13 +1900,13 @@
         <v>404748</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>429</v>
@@ -1921,13 +1915,13 @@
         <v>439185</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
         <v>809</v>
@@ -1936,18 +1930,18 @@
         <v>843933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1962,10 +1956,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -1974,13 +1968,13 @@
         <v>1988</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -1989,19 +1983,19 @@
         <v>1988</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>276</v>
@@ -2010,13 +2004,13 @@
         <v>272349</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7">
         <v>310</v>
@@ -2025,13 +2019,13 @@
         <v>317094</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
         <v>586</v>
@@ -2040,13 +2034,13 @@
         <v>589443</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,13 +2055,13 @@
         <v>272349</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7">
         <v>312</v>
@@ -2076,13 +2070,13 @@
         <v>319082</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
         <v>588</v>
@@ -2091,18 +2085,18 @@
         <v>591431</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2114,13 +2108,13 @@
         <v>965</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2129,13 +2123,13 @@
         <v>4177</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -2144,19 +2138,19 @@
         <v>5142</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>348</v>
@@ -2165,13 +2159,13 @@
         <v>338564</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
         <v>445</v>
@@ -2180,13 +2174,13 @@
         <v>450969</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M20" s="7">
         <v>793</v>
@@ -2195,13 +2189,13 @@
         <v>789533</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2216,13 +2210,13 @@
         <v>339529</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>449</v>
@@ -2231,13 +2225,13 @@
         <v>455146</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>798</v>
@@ -2246,13 +2240,13 @@
         <v>794675</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,13 +2263,13 @@
         <v>8367</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -2284,13 +2278,13 @@
         <v>14810</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -2299,19 +2293,19 @@
         <v>23177</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>2398</v>
@@ -2320,13 +2314,13 @@
         <v>2446375</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="H23" s="7">
         <v>2665</v>
@@ -2335,13 +2329,13 @@
         <v>2726127</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M23" s="7">
         <v>5063</v>
@@ -2350,13 +2344,13 @@
         <v>5172502</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,13 +2365,13 @@
         <v>2454742</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <v>2679</v>
@@ -2386,13 +2380,13 @@
         <v>2740937</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M24" s="7">
         <v>5086</v>
@@ -2401,18 +2395,18 @@
         <v>5195679</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2434,7 +2428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCF96B4-741B-4FCB-9884-628A9A3682FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9E3CE-30FA-447D-917A-E46CF8C049E0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2451,7 +2445,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2558,13 +2552,13 @@
         <v>1880</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2573,13 +2567,13 @@
         <v>4157</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2588,19 +2582,19 @@
         <v>6037</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>371</v>
@@ -2609,28 +2603,28 @@
         <v>377296</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>358</v>
       </c>
       <c r="I5" s="7">
-        <v>366833</v>
+        <v>366834</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7">
         <v>729</v>
@@ -2639,13 +2633,13 @@
         <v>744129</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2660,28 +2654,28 @@
         <v>379176</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370990</v>
+        <v>370991</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>735</v>
@@ -2690,18 +2684,18 @@
         <v>750166</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2713,13 +2707,13 @@
         <v>4775</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2728,13 +2722,13 @@
         <v>4948</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2743,19 +2737,19 @@
         <v>9723</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>576</v>
@@ -2764,13 +2758,13 @@
         <v>592492</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -2779,13 +2773,13 @@
         <v>552969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="M8" s="7">
         <v>1092</v>
@@ -2794,13 +2788,13 @@
         <v>1145461</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,13 +2809,13 @@
         <v>597267</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>521</v>
@@ -2830,13 +2824,13 @@
         <v>557917</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>1101</v>
@@ -2845,18 +2839,18 @@
         <v>1155184</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2868,13 +2862,13 @@
         <v>1972</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2883,10 +2877,10 @@
         <v>5748</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>124</v>
@@ -2898,7 +2892,7 @@
         <v>7720</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>125</v>
@@ -2910,7 +2904,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>561</v>
@@ -2919,13 +2913,13 @@
         <v>584679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>615</v>
@@ -2934,13 +2928,13 @@
         <v>653706</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="M11" s="7">
         <v>1176</v>
@@ -2949,13 +2943,13 @@
         <v>1238384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,13 +2964,13 @@
         <v>586651</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
         <v>621</v>
@@ -2985,13 +2979,13 @@
         <v>659454</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
         <v>1184</v>
@@ -3000,18 +2994,18 @@
         <v>1246104</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3023,13 +3017,13 @@
         <v>4444</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3038,13 +3032,13 @@
         <v>3979</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3053,34 +3047,34 @@
         <v>8422</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>480</v>
       </c>
       <c r="D14" s="7">
-        <v>538396</v>
+        <v>538395</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>490</v>
@@ -3089,13 +3083,13 @@
         <v>559372</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>970</v>
@@ -3104,13 +3098,13 @@
         <v>1097768</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,16 +3116,16 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542840</v>
+        <v>542839</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>493</v>
@@ -3140,13 +3134,13 @@
         <v>563351</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
         <v>976</v>
@@ -3155,18 +3149,18 @@
         <v>1106190</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3178,7 +3172,7 @@
         <v>1048</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
@@ -3196,10 +3190,10 @@
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3220,7 +3214,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>332</v>
@@ -3229,13 +3223,13 @@
         <v>360262</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>148</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
         <v>353</v>
@@ -3244,13 +3238,13 @@
         <v>390715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M17" s="7">
         <v>685</v>
@@ -3265,7 +3259,7 @@
         <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3280,13 +3274,13 @@
         <v>361310</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7">
         <v>353</v>
@@ -3295,13 +3289,13 @@
         <v>390715</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
         <v>686</v>
@@ -3310,18 +3304,18 @@
         <v>752025</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3351,10 +3345,10 @@
         <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3369,13 +3363,13 @@
         <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>400</v>
@@ -3384,13 +3378,13 @@
         <v>443492</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H20" s="7">
         <v>562</v>
@@ -3399,13 +3393,13 @@
         <v>600962</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M20" s="7">
         <v>962</v>
@@ -3414,13 +3408,13 @@
         <v>1044454</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3435,13 +3429,13 @@
         <v>447416</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>562</v>
@@ -3450,13 +3444,13 @@
         <v>600962</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>966</v>
@@ -3465,13 +3459,13 @@
         <v>1048378</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3482,13 @@
         <v>18043</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -3503,13 +3497,13 @@
         <v>18832</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -3518,19 +3512,19 @@
         <v>36875</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>2720</v>
@@ -3539,13 +3533,13 @@
         <v>2896615</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>167</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>2894</v>
@@ -3557,10 +3551,10 @@
         <v>168</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>5614</v>
@@ -3569,13 +3563,13 @@
         <v>6021172</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,13 +3584,13 @@
         <v>2914658</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <v>2912</v>
@@ -3605,13 +3599,13 @@
         <v>3143388</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M24" s="7">
         <v>5648</v>
@@ -3620,18 +3614,18 @@
         <v>6058047</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3653,7 +3647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A5D4F7-D5E9-4E73-B587-04C1213F37D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252720F1-0886-4857-A421-54BA86859195}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3670,7 +3664,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3780,10 +3774,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3795,10 +3789,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3810,16 +3804,16 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>331</v>
@@ -3828,13 +3822,13 @@
         <v>352840</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>359</v>
@@ -3843,13 +3837,13 @@
         <v>351930</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>690</v>
@@ -3858,13 +3852,13 @@
         <v>704770</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3873,13 @@
         <v>352840</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
         <v>359</v>
@@ -3894,13 +3888,13 @@
         <v>351930</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>690</v>
@@ -3909,18 +3903,18 @@
         <v>704770</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3935,10 +3929,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3950,10 +3944,10 @@
         <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3965,16 +3959,16 @@
         <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>89</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>475</v>
@@ -3983,13 +3977,13 @@
         <v>493078</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
         <v>510</v>
@@ -3998,13 +3992,13 @@
         <v>496720</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M8" s="7">
         <v>985</v>
@@ -4013,13 +4007,13 @@
         <v>989797</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4028,13 @@
         <v>493078</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>510</v>
@@ -4049,13 +4043,13 @@
         <v>496720</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>985</v>
@@ -4064,18 +4058,18 @@
         <v>989797</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4087,13 +4081,13 @@
         <v>1022</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4102,13 +4096,13 @@
         <v>2592</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4117,19 +4111,19 @@
         <v>3614</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>530</v>
@@ -4138,13 +4132,13 @@
         <v>556838</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>574</v>
@@ -4153,13 +4147,13 @@
         <v>570488</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
         <v>1104</v>
@@ -4168,13 +4162,13 @@
         <v>1127326</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4183,13 @@
         <v>557860</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
         <v>576</v>
@@ -4204,13 +4198,13 @@
         <v>573080</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
         <v>1107</v>
@@ -4219,18 +4213,18 @@
         <v>1130940</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4245,10 +4239,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4260,10 +4254,10 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4275,16 +4269,16 @@
         <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>463</v>
@@ -4293,13 +4287,13 @@
         <v>512372</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
         <v>507</v>
@@ -4308,13 +4302,13 @@
         <v>544884</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M14" s="7">
         <v>970</v>
@@ -4323,13 +4317,13 @@
         <v>1057256</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4338,13 @@
         <v>512372</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>507</v>
@@ -4359,13 +4353,13 @@
         <v>544884</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
         <v>970</v>
@@ -4374,18 +4368,18 @@
         <v>1057256</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4397,13 +4391,13 @@
         <v>2188</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4412,13 +4406,13 @@
         <v>968</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4427,19 +4421,19 @@
         <v>3156</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>327</v>
@@ -4448,13 +4442,13 @@
         <v>368814</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
         <v>344</v>
@@ -4463,13 +4457,13 @@
         <v>394905</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>195</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
         <v>671</v>
@@ -4478,13 +4472,13 @@
         <v>763719</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,13 +4493,13 @@
         <v>371002</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7">
         <v>345</v>
@@ -4514,13 +4508,13 @@
         <v>395873</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
         <v>674</v>
@@ -4529,18 +4523,18 @@
         <v>766875</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4552,13 +4546,13 @@
         <v>913</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4567,13 +4561,13 @@
         <v>2365</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -4588,13 +4582,13 @@
         <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>400</v>
@@ -4603,13 +4597,13 @@
         <v>376269</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H20" s="7">
         <v>428</v>
@@ -4618,13 +4612,13 @@
         <v>502462</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M20" s="7">
         <v>828</v>
@@ -4633,13 +4627,13 @@
         <v>878731</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4648,13 @@
         <v>377182</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>430</v>
@@ -4669,13 +4663,13 @@
         <v>504827</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>831</v>
@@ -4684,13 +4678,13 @@
         <v>882009</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4701,13 @@
         <v>4122</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4722,13 +4716,13 @@
         <v>5926</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -4737,34 +4731,34 @@
         <v>10049</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>2526</v>
       </c>
       <c r="D23" s="7">
-        <v>2660212</v>
+        <v>2660211</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H23" s="7">
         <v>2722</v>
@@ -4773,28 +4767,28 @@
         <v>2861389</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>86</v>
+        <v>211</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M23" s="7">
         <v>5248</v>
       </c>
       <c r="N23" s="7">
-        <v>5521600</v>
+        <v>5521599</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,16 +4800,16 @@
         <v>2530</v>
       </c>
       <c r="D24" s="7">
-        <v>2664334</v>
+        <v>2664333</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <v>2727</v>
@@ -4824,33 +4818,33 @@
         <v>2867315</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M24" s="7">
         <v>5257</v>
       </c>
       <c r="N24" s="7">
-        <v>5531649</v>
+        <v>5531648</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4872,7 +4866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E486690-FC1D-418E-B846-ECAD81813139}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55CE290-D872-4837-84A2-2EB8A9961BF4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4889,7 +4883,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4996,13 +4990,13 @@
         <v>4691</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5011,13 +5005,13 @@
         <v>3426</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5026,19 +5020,19 @@
         <v>8117</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>155</v>
@@ -5047,13 +5041,13 @@
         <v>353067</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>34</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>193</v>
@@ -5062,13 +5056,13 @@
         <v>341070</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
         <v>348</v>
@@ -5077,13 +5071,13 @@
         <v>694137</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5092,13 @@
         <v>357758</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" s="7">
         <v>195</v>
@@ -5113,13 +5107,13 @@
         <v>344496</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M6" s="7">
         <v>352</v>
@@ -5128,18 +5122,18 @@
         <v>702254</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5151,13 +5145,13 @@
         <v>160</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5166,13 +5160,13 @@
         <v>1164</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5181,19 +5175,19 @@
         <v>1325</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>280</v>
@@ -5202,13 +5196,13 @@
         <v>407040</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
         <v>441</v>
@@ -5217,13 +5211,13 @@
         <v>484711</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
         <v>721</v>
@@ -5232,13 +5226,13 @@
         <v>891750</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5247,13 @@
         <v>407200</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H9" s="7">
         <v>442</v>
@@ -5268,13 +5262,13 @@
         <v>485875</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M9" s="7">
         <v>723</v>
@@ -5283,18 +5277,18 @@
         <v>893075</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5306,13 +5300,13 @@
         <v>3690</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5321,13 +5315,13 @@
         <v>3883</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -5336,19 +5330,19 @@
         <v>7573</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>90</v>
+        <v>225</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>524</v>
@@ -5357,13 +5351,13 @@
         <v>540665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>86</v>
+        <v>159</v>
       </c>
       <c r="H11" s="7">
         <v>818</v>
@@ -5372,13 +5366,13 @@
         <v>568313</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>233</v>
       </c>
       <c r="M11" s="7">
         <v>1342</v>
@@ -5387,13 +5381,13 @@
         <v>1108979</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>95</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5402,13 @@
         <v>544355</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H12" s="7">
         <v>825</v>
@@ -5423,13 +5417,13 @@
         <v>572196</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M12" s="7">
         <v>1352</v>
@@ -5438,18 +5432,18 @@
         <v>1116552</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5461,13 +5455,13 @@
         <v>1192</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5476,13 +5470,13 @@
         <v>2596</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>155</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>236</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5494,16 +5488,16 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
         <v>640</v>
@@ -5512,13 +5506,13 @@
         <v>701402</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
         <v>1113</v>
@@ -5527,13 +5521,13 @@
         <v>731211</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M14" s="7">
         <v>1753</v>
@@ -5542,13 +5536,13 @@
         <v>1432613</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>169</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5557,13 @@
         <v>702594</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <v>1117</v>
@@ -5578,13 +5572,13 @@
         <v>733807</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M15" s="7">
         <v>1758</v>
@@ -5593,18 +5587,18 @@
         <v>1436400</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5616,13 +5610,13 @@
         <v>3032</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>56</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5631,13 +5625,13 @@
         <v>1034</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5646,19 +5640,19 @@
         <v>4065</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>642</v>
@@ -5667,13 +5661,13 @@
         <v>581738</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H17" s="7">
         <v>978</v>
@@ -5682,28 +5676,28 @@
         <v>581309</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>1620</v>
       </c>
       <c r="N17" s="7">
-        <v>1163048</v>
+        <v>1163049</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5712,13 @@
         <v>584770</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7">
         <v>981</v>
@@ -5733,33 +5727,33 @@
         <v>582343</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M18" s="7">
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167113</v>
+        <v>1167114</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5771,13 +5765,13 @@
         <v>3311</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>238</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5786,13 +5780,13 @@
         <v>3165</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>240</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -5801,19 +5795,19 @@
         <v>6476</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>997</v>
@@ -5822,13 +5816,13 @@
         <v>677151</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>1652</v>
@@ -5837,13 +5831,13 @@
         <v>994965</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>2649</v>
@@ -5852,13 +5846,13 @@
         <v>1672116</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>189</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5867,13 @@
         <v>680462</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <v>1657</v>
@@ -5888,13 +5882,13 @@
         <v>998130</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M21" s="7">
         <v>2659</v>
@@ -5903,13 +5897,13 @@
         <v>1678592</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5926,13 +5920,13 @@
         <v>16076</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -5941,13 +5935,13 @@
         <v>15267</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>64</v>
+        <v>251</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -5956,19 +5950,19 @@
         <v>31343</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>251</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
         <v>3238</v>
@@ -5977,13 +5971,13 @@
         <v>3261062</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="H23" s="7">
         <v>5195</v>
@@ -5992,13 +5986,13 @@
         <v>3701581</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M23" s="7">
         <v>8433</v>
@@ -6007,13 +6001,13 @@
         <v>6962643</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>253</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>254</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6028,13 +6022,13 @@
         <v>3277138</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <v>5217</v>
@@ -6043,13 +6037,13 @@
         <v>3716848</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M24" s="7">
         <v>8470</v>
@@ -6058,18 +6052,18 @@
         <v>6993986</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C08-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D7A19D1-7F55-459C-B2A2-8E811001A574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{799012A9-3ACE-44D3-A6CE-144412E5D771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F35F99B-DCD8-416F-869C-7ABE7FEBFFF0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4FCA0BCA-665B-424E-8CE3-099C80274AC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="257">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -80,718 +80,730 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,52%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
   </si>
   <si>
     <t>1,22%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
   </si>
   <si>
     <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2015 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -1209,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BE13AC5-08DE-450D-87A8-6517776530D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB4FE84-FCF3-4066-82E5-56E5333E3939}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1649,7 +1661,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1658,13 +1670,13 @@
         <v>2150</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1676,10 +1688,10 @@
         <v>43</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,10 +1706,10 @@
         <v>501166</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -1709,10 +1721,10 @@
         <v>601415</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -1724,13 +1736,13 @@
         <v>1102580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1786,7 +1798,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1798,13 +1810,13 @@
         <v>1818</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1813,13 +1825,13 @@
         <v>1975</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1828,13 +1840,13 @@
         <v>3793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,10 +1861,10 @@
         <v>402930</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -1864,10 +1876,10 @@
         <v>437210</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1879,13 +1891,13 @@
         <v>840140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,7 +1953,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1956,10 +1968,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -1968,13 +1980,13 @@
         <v>1988</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -1983,13 +1995,13 @@
         <v>1988</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,7 +2019,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>22</v>
@@ -2019,10 +2031,10 @@
         <v>317094</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -2034,10 +2046,10 @@
         <v>589443</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -2096,7 +2108,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2108,13 +2120,13 @@
         <v>965</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2123,10 +2135,10 @@
         <v>4177</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>81</v>
@@ -2141,10 +2153,10 @@
         <v>82</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,10 +2171,10 @@
         <v>338564</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -2174,13 +2186,13 @@
         <v>450969</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
         <v>793</v>
@@ -2189,13 +2201,13 @@
         <v>789533</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2275,13 @@
         <v>8367</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -2278,13 +2290,13 @@
         <v>14810</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -2293,13 +2305,13 @@
         <v>23177</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,13 +2326,13 @@
         <v>2446375</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="H23" s="7">
         <v>2665</v>
@@ -2329,13 +2341,13 @@
         <v>2726127</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M23" s="7">
         <v>5063</v>
@@ -2344,13 +2356,13 @@
         <v>5172502</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,7 +2418,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2428,7 +2440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9E3CE-30FA-447D-917A-E46CF8C049E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998E3A4-8A9E-4E0E-A234-4DBF4C70C1FC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2445,7 +2457,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2558,7 +2570,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2567,13 +2579,13 @@
         <v>4157</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2582,13 +2594,13 @@
         <v>6037</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,7 +2618,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2615,16 +2627,16 @@
         <v>358</v>
       </c>
       <c r="I5" s="7">
-        <v>366834</v>
+        <v>366833</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="M5" s="7">
         <v>729</v>
@@ -2633,13 +2645,13 @@
         <v>744129</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,7 +2678,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370991</v>
+        <v>370990</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>22</v>
@@ -2707,13 +2719,13 @@
         <v>4775</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2722,13 +2734,13 @@
         <v>4948</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2737,13 +2749,13 @@
         <v>9723</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,13 +2770,13 @@
         <v>592492</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -2773,13 +2785,13 @@
         <v>552969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>1092</v>
@@ -2788,13 +2800,13 @@
         <v>1145461</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2874,13 @@
         <v>1972</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2877,13 +2889,13 @@
         <v>5748</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2892,13 +2904,13 @@
         <v>7720</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,10 +2925,10 @@
         <v>584679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2928,13 +2940,13 @@
         <v>653706</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="M11" s="7">
         <v>1176</v>
@@ -2943,13 +2955,13 @@
         <v>1238384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,7 +3017,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3038,7 +3050,7 @@
         <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3047,13 +3059,13 @@
         <v>8422</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,7 +3077,7 @@
         <v>480</v>
       </c>
       <c r="D14" s="7">
-        <v>538395</v>
+        <v>538396</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>139</v>
@@ -3086,7 +3098,7 @@
         <v>142</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>141</v>
@@ -3098,13 +3110,13 @@
         <v>1097768</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,7 +3128,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542839</v>
+        <v>542840</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>22</v>
@@ -3160,7 +3172,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3172,7 +3184,7 @@
         <v>1048</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
@@ -3190,10 +3202,10 @@
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3223,7 +3235,7 @@
         <v>360262</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>148</v>
@@ -3241,7 +3253,7 @@
         <v>19</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
@@ -3315,7 +3327,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3327,13 +3339,13 @@
         <v>3924</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3345,10 +3357,10 @@
         <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3357,13 +3369,13 @@
         <v>3924</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,25 +3390,25 @@
         <v>443492</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H20" s="7">
         <v>562</v>
       </c>
       <c r="I20" s="7">
-        <v>600962</v>
+        <v>600961</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>22</v>
@@ -3408,13 +3420,13 @@
         <v>1044454</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,7 +3453,7 @@
         <v>562</v>
       </c>
       <c r="I21" s="7">
-        <v>600962</v>
+        <v>600961</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -3482,13 +3494,13 @@
         <v>18043</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -3497,13 +3509,13 @@
         <v>18832</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -3518,7 +3530,7 @@
         <v>166</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3545,13 @@
         <v>2896615</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>167</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="H23" s="7">
         <v>2894</v>
@@ -3548,13 +3560,13 @@
         <v>3124556</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
         <v>5614</v>
@@ -3563,13 +3575,13 @@
         <v>6021172</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,7 +3637,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3647,7 +3659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252720F1-0886-4857-A421-54BA86859195}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A440820D-D874-4608-AEA9-A3B1883A9CD0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3664,7 +3676,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3774,10 +3786,10 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3789,10 +3801,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3804,10 +3816,10 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,7 +3837,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -3840,7 +3852,7 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -3855,7 +3867,7 @@
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -3929,10 +3941,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3944,10 +3956,10 @@
         <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3959,7 +3971,7 @@
         <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>134</v>
@@ -3980,7 +3992,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>22</v>
@@ -3995,7 +4007,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>22</v>
@@ -4081,13 +4093,13 @@
         <v>1022</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4096,13 +4108,13 @@
         <v>2592</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4111,13 +4123,13 @@
         <v>3614</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,10 +4144,10 @@
         <v>556838</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4147,10 +4159,10 @@
         <v>570488</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4162,13 +4174,13 @@
         <v>1127326</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,7 +4236,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4239,10 +4251,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4254,10 +4266,10 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4269,10 +4281,10 @@
         <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,7 +4302,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>22</v>
@@ -4305,7 +4317,7 @@
         <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>22</v>
@@ -4320,7 +4332,7 @@
         <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>22</v>
@@ -4379,7 +4391,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4391,13 +4403,13 @@
         <v>2188</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4406,13 +4418,13 @@
         <v>968</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4421,13 +4433,13 @@
         <v>3156</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,10 +4454,10 @@
         <v>368814</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4457,10 +4469,10 @@
         <v>394905</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4472,13 +4484,13 @@
         <v>763719</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,7 +4546,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4546,13 +4558,13 @@
         <v>913</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4561,13 +4573,13 @@
         <v>2365</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -4576,13 +4588,13 @@
         <v>3278</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,10 +4609,10 @@
         <v>376269</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -4612,10 +4624,10 @@
         <v>502462</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -4627,13 +4639,13 @@
         <v>878731</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,10 +4716,10 @@
         <v>28</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4716,13 +4728,13 @@
         <v>5926</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -4731,13 +4743,13 @@
         <v>10049</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>208</v>
+        <v>47</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>209</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,16 +4761,16 @@
         <v>2526</v>
       </c>
       <c r="D23" s="7">
-        <v>2660211</v>
+        <v>2660212</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H23" s="7">
         <v>2722</v>
@@ -4767,13 +4779,13 @@
         <v>2861389</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M23" s="7">
         <v>5248</v>
@@ -4782,13 +4794,13 @@
         <v>5521599</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>215</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,7 +4812,7 @@
         <v>2530</v>
       </c>
       <c r="D24" s="7">
-        <v>2664333</v>
+        <v>2664334</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>22</v>
@@ -4844,7 +4856,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4866,7 +4878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55CE290-D872-4837-84A2-2EB8A9961BF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321BE757-B8B5-4ABA-AEB6-89102D850619}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4990,7 +5002,7 @@
         <v>4691</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>145</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -5005,13 +5017,13 @@
         <v>3426</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5020,13 +5032,13 @@
         <v>8117</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,10 +5053,10 @@
         <v>353067</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5056,10 +5068,10 @@
         <v>341070</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>161</v>
+        <v>223</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -5071,13 +5083,13 @@
         <v>694137</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5157,13 @@
         <v>160</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5160,13 +5172,13 @@
         <v>1164</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5196,10 +5208,10 @@
         <v>407040</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -5211,10 +5223,10 @@
         <v>484711</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -5229,7 +5241,7 @@
         <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -5300,13 +5312,13 @@
         <v>3690</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5315,13 +5327,13 @@
         <v>3883</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -5330,13 +5342,13 @@
         <v>7573</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5363,13 @@
         <v>540665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H11" s="7">
         <v>818</v>
@@ -5366,13 +5378,13 @@
         <v>568313</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M11" s="7">
         <v>1342</v>
@@ -5381,13 +5393,13 @@
         <v>1108979</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>234</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,7 +5455,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5455,13 +5467,13 @@
         <v>1192</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5473,10 +5485,10 @@
         <v>43</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5488,7 +5500,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>165</v>
@@ -5506,10 +5518,10 @@
         <v>701402</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -5521,13 +5533,13 @@
         <v>731211</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>1753</v>
@@ -5539,10 +5551,10 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,7 +5610,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5610,13 +5622,13 @@
         <v>3032</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>56</v>
+        <v>242</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5625,13 +5637,13 @@
         <v>1034</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5643,10 +5655,10 @@
         <v>43</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,10 +5673,10 @@
         <v>581738</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>61</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>38</v>
@@ -5676,13 +5688,13 @@
         <v>581309</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>1620</v>
@@ -5691,13 +5703,13 @@
         <v>1163049</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,7 +5765,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5765,13 +5777,13 @@
         <v>3311</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5780,10 +5792,10 @@
         <v>3165</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>136</v>
@@ -5795,13 +5807,13 @@
         <v>6476</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,10 +5828,10 @@
         <v>677151</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>141</v>
@@ -5831,13 +5843,13 @@
         <v>994965</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>142</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M20" s="7">
         <v>2649</v>
@@ -5846,13 +5858,13 @@
         <v>1672116</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,13 +5932,13 @@
         <v>16076</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -5935,13 +5947,13 @@
         <v>15267</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -5950,10 +5962,10 @@
         <v>31343</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>27</v>
@@ -5971,13 +5983,13 @@
         <v>3261062</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H23" s="7">
         <v>5195</v>
@@ -5986,10 +5998,10 @@
         <v>3701581</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>17</v>
@@ -6001,13 +6013,13 @@
         <v>6962643</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,7 +6075,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{799012A9-3ACE-44D3-A6CE-144412E5D771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EDF3BB8-8CB1-4A99-B87F-39A37437EE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4FCA0BCA-665B-424E-8CE3-099C80274AC1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{317DEB5C-7E99-4CC5-B13E-B0AEC84E25DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="255">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,26%</t>
@@ -83,733 +83,727 @@
     <t>1,32%</t>
   </si>
   <si>
-    <t>1,33%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
   </si>
   <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>99,88%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB4FE84-FCF3-4066-82E5-56E5333E3939}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A94F526-8B9A-4C02-886E-60D31E8578F7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1366,7 +1360,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -1381,13 +1375,13 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>361</v>
@@ -1396,13 +1390,13 @@
         <v>358449</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>394</v>
@@ -1411,13 +1405,13 @@
         <v>375264</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
         <v>755</v>
@@ -1426,13 +1420,13 @@
         <v>733714</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,13 +1441,13 @@
         <v>359401</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
         <v>395</v>
@@ -1462,13 +1456,13 @@
         <v>376252</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
         <v>757</v>
@@ -1477,18 +1471,18 @@
         <v>735654</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1500,13 +1494,13 @@
         <v>2865</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -1515,13 +1509,13 @@
         <v>3531</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -1530,19 +1524,19 @@
         <v>6396</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>551</v>
@@ -1551,13 +1545,13 @@
         <v>572916</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -1566,13 +1560,13 @@
         <v>544177</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>1067</v>
@@ -1581,13 +1575,13 @@
         <v>1117093</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,13 +1596,13 @@
         <v>575781</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>519</v>
@@ -1617,13 +1611,13 @@
         <v>547708</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M9" s="7">
         <v>1073</v>
@@ -1632,18 +1626,18 @@
         <v>1123489</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1655,13 +1649,13 @@
         <v>1767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1670,13 +1664,13 @@
         <v>2150</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1685,19 +1679,19 @@
         <v>3917</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>484</v>
@@ -1706,13 +1700,13 @@
         <v>501166</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7">
         <v>573</v>
@@ -1721,13 +1715,13 @@
         <v>601415</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" s="7">
         <v>1057</v>
@@ -1736,13 +1730,13 @@
         <v>1102580</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,13 +1751,13 @@
         <v>502933</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H12" s="7">
         <v>575</v>
@@ -1772,13 +1766,13 @@
         <v>603565</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M12" s="7">
         <v>1061</v>
@@ -1787,18 +1781,18 @@
         <v>1106497</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1810,13 +1804,13 @@
         <v>1818</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1825,13 +1819,13 @@
         <v>1975</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1840,19 +1834,19 @@
         <v>3793</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>378</v>
@@ -1861,13 +1855,13 @@
         <v>402930</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7">
         <v>427</v>
@@ -1876,13 +1870,13 @@
         <v>437210</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
         <v>805</v>
@@ -1891,13 +1885,13 @@
         <v>840140</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1912,13 +1906,13 @@
         <v>404748</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H15" s="7">
         <v>429</v>
@@ -1927,13 +1921,13 @@
         <v>439185</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M15" s="7">
         <v>809</v>
@@ -1942,18 +1936,18 @@
         <v>843933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1968,10 +1962,10 @@
         <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -1980,13 +1974,13 @@
         <v>1988</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -1995,19 +1989,19 @@
         <v>1988</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>276</v>
@@ -2016,13 +2010,13 @@
         <v>272349</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H17" s="7">
         <v>310</v>
@@ -2031,13 +2025,13 @@
         <v>317094</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17" s="7">
         <v>586</v>
@@ -2046,13 +2040,13 @@
         <v>589443</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,13 +2061,13 @@
         <v>272349</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H18" s="7">
         <v>312</v>
@@ -2082,13 +2076,13 @@
         <v>319082</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M18" s="7">
         <v>588</v>
@@ -2097,18 +2091,18 @@
         <v>591431</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2120,13 +2114,13 @@
         <v>965</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2135,13 +2129,13 @@
         <v>4177</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -2150,19 +2144,19 @@
         <v>5142</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>348</v>
@@ -2171,13 +2165,13 @@
         <v>338564</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7">
         <v>445</v>
@@ -2186,13 +2180,13 @@
         <v>450969</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>85</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="M20" s="7">
         <v>793</v>
@@ -2201,13 +2195,13 @@
         <v>789533</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2216,13 @@
         <v>339529</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H21" s="7">
         <v>449</v>
@@ -2237,13 +2231,13 @@
         <v>455146</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M21" s="7">
         <v>798</v>
@@ -2252,13 +2246,13 @@
         <v>794675</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2269,13 @@
         <v>8367</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -2290,13 +2284,13 @@
         <v>14810</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -2305,19 +2299,19 @@
         <v>23177</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>2398</v>
@@ -2326,13 +2320,13 @@
         <v>2446375</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H23" s="7">
         <v>2665</v>
@@ -2341,13 +2335,13 @@
         <v>2726127</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M23" s="7">
         <v>5063</v>
@@ -2356,10 +2350,10 @@
         <v>5172502</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>100</v>
@@ -2377,13 +2371,13 @@
         <v>2454742</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H24" s="7">
         <v>2679</v>
@@ -2392,13 +2386,13 @@
         <v>2740937</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M24" s="7">
         <v>5086</v>
@@ -2407,13 +2401,13 @@
         <v>5195679</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,7 +2434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0998E3A4-8A9E-4E0E-A234-4DBF4C70C1FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED7F283-FD16-4000-8527-F4B31E3B7D1A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2564,7 +2558,7 @@
         <v>1880</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -2582,10 +2576,10 @@
         <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2594,19 +2588,19 @@
         <v>6037</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>371</v>
@@ -2615,13 +2609,13 @@
         <v>377296</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>358</v>
@@ -2630,13 +2624,13 @@
         <v>366833</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="M5" s="7">
         <v>729</v>
@@ -2645,13 +2639,13 @@
         <v>744129</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,13 +2660,13 @@
         <v>379176</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
         <v>362</v>
@@ -2681,13 +2675,13 @@
         <v>370990</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
         <v>735</v>
@@ -2696,18 +2690,18 @@
         <v>750166</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2719,13 +2713,13 @@
         <v>4775</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2734,13 +2728,13 @@
         <v>4948</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2749,19 +2743,19 @@
         <v>9723</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>576</v>
@@ -2770,13 +2764,13 @@
         <v>592492</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="H8" s="7">
         <v>516</v>
@@ -2785,13 +2779,13 @@
         <v>552969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>1092</v>
@@ -2800,13 +2794,13 @@
         <v>1145461</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2815,13 @@
         <v>597267</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>521</v>
@@ -2836,13 +2830,13 @@
         <v>557917</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M9" s="7">
         <v>1101</v>
@@ -2851,18 +2845,18 @@
         <v>1155184</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2874,13 +2868,13 @@
         <v>1972</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2889,13 +2883,13 @@
         <v>5748</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2904,19 +2898,19 @@
         <v>7720</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>561</v>
@@ -2925,13 +2919,13 @@
         <v>584679</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7">
         <v>615</v>
@@ -2940,10 +2934,10 @@
         <v>653706</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>100</v>
@@ -2955,13 +2949,13 @@
         <v>1238384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +2970,13 @@
         <v>586651</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H12" s="7">
         <v>621</v>
@@ -2991,13 +2985,13 @@
         <v>659454</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M12" s="7">
         <v>1184</v>
@@ -3006,18 +3000,18 @@
         <v>1246104</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3029,13 +3023,13 @@
         <v>4444</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3044,13 +3038,13 @@
         <v>3979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3059,19 +3053,19 @@
         <v>8422</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>480</v>
@@ -3080,13 +3074,13 @@
         <v>538396</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>490</v>
@@ -3095,13 +3089,13 @@
         <v>559372</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>970</v>
@@ -3116,7 +3110,7 @@
         <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3125,13 @@
         <v>542840</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H15" s="7">
         <v>493</v>
@@ -3146,13 +3140,13 @@
         <v>563351</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M15" s="7">
         <v>976</v>
@@ -3161,18 +3155,18 @@
         <v>1106190</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3184,7 +3178,7 @@
         <v>1048</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
@@ -3202,10 +3196,10 @@
         <v>12</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3226,7 +3220,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>332</v>
@@ -3235,13 +3229,13 @@
         <v>360262</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>148</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7">
         <v>353</v>
@@ -3250,13 +3244,13 @@
         <v>390715</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M17" s="7">
         <v>685</v>
@@ -3271,7 +3265,7 @@
         <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3280,13 @@
         <v>361310</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H18" s="7">
         <v>353</v>
@@ -3301,13 +3295,13 @@
         <v>390715</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M18" s="7">
         <v>686</v>
@@ -3316,18 +3310,18 @@
         <v>752025</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3339,13 +3333,13 @@
         <v>3924</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3357,10 +3351,10 @@
         <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -3369,19 +3363,19 @@
         <v>3924</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>400</v>
@@ -3390,28 +3384,28 @@
         <v>443492</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H20" s="7">
         <v>562</v>
       </c>
       <c r="I20" s="7">
-        <v>600961</v>
+        <v>600962</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M20" s="7">
         <v>962</v>
@@ -3420,10 +3414,10 @@
         <v>1044454</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>160</v>
@@ -3441,28 +3435,28 @@
         <v>447416</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H21" s="7">
         <v>562</v>
       </c>
       <c r="I21" s="7">
-        <v>600961</v>
+        <v>600962</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M21" s="7">
         <v>966</v>
@@ -3471,13 +3465,13 @@
         <v>1048378</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3488,13 @@
         <v>18043</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -3509,13 +3503,13 @@
         <v>18832</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -3524,19 +3518,19 @@
         <v>36875</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>2720</v>
@@ -3545,13 +3539,13 @@
         <v>2896615</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>167</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>2894</v>
@@ -3560,13 +3554,13 @@
         <v>3124556</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="M23" s="7">
         <v>5614</v>
@@ -3575,10 +3569,10 @@
         <v>6021172</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>172</v>
@@ -3596,13 +3590,13 @@
         <v>2914658</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H24" s="7">
         <v>2912</v>
@@ -3611,13 +3605,13 @@
         <v>3143388</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M24" s="7">
         <v>5648</v>
@@ -3626,13 +3620,13 @@
         <v>6058047</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,7 +3653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A440820D-D874-4608-AEA9-A3B1883A9CD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB4AEED-B64D-47CF-8780-9B9839E59C9D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3786,7 +3780,7 @@
         <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>174</v>
@@ -3801,7 +3795,7 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>175</v>
@@ -3816,16 +3810,16 @@
         <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>331</v>
@@ -3834,13 +3828,13 @@
         <v>352840</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>359</v>
@@ -3849,13 +3843,13 @@
         <v>351930</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>177</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M5" s="7">
         <v>690</v>
@@ -3864,13 +3858,13 @@
         <v>704770</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3879,13 @@
         <v>352840</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
         <v>359</v>
@@ -3900,13 +3894,13 @@
         <v>351930</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
         <v>690</v>
@@ -3915,18 +3909,18 @@
         <v>704770</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3941,7 +3935,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>178</v>
@@ -3956,7 +3950,7 @@
         <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>179</v>
@@ -3971,16 +3965,16 @@
         <v>12</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>475</v>
@@ -3989,13 +3983,13 @@
         <v>493078</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8" s="7">
         <v>510</v>
@@ -4004,13 +3998,13 @@
         <v>496720</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M8" s="7">
         <v>985</v>
@@ -4019,13 +4013,13 @@
         <v>989797</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4034,13 @@
         <v>493078</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>510</v>
@@ -4055,13 +4049,13 @@
         <v>496720</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M9" s="7">
         <v>985</v>
@@ -4070,18 +4064,18 @@
         <v>989797</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4093,7 +4087,7 @@
         <v>1022</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -4108,7 +4102,7 @@
         <v>2592</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
@@ -4126,16 +4120,16 @@
         <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>530</v>
@@ -4144,13 +4138,13 @@
         <v>556838</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" s="7">
         <v>574</v>
@@ -4159,13 +4153,13 @@
         <v>570488</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" s="7">
         <v>1104</v>
@@ -4174,13 +4168,13 @@
         <v>1127326</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4189,13 @@
         <v>557860</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H12" s="7">
         <v>576</v>
@@ -4210,13 +4204,13 @@
         <v>573080</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M12" s="7">
         <v>1107</v>
@@ -4225,18 +4219,18 @@
         <v>1130940</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4251,10 +4245,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4266,7 +4260,7 @@
         <v>12</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>179</v>
@@ -4281,16 +4275,16 @@
         <v>12</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>463</v>
@@ -4299,13 +4293,13 @@
         <v>512372</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H14" s="7">
         <v>507</v>
@@ -4314,13 +4308,13 @@
         <v>544884</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M14" s="7">
         <v>970</v>
@@ -4329,13 +4323,13 @@
         <v>1057256</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4344,13 @@
         <v>512372</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H15" s="7">
         <v>507</v>
@@ -4365,13 +4359,13 @@
         <v>544884</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M15" s="7">
         <v>970</v>
@@ -4380,18 +4374,18 @@
         <v>1057256</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4403,13 +4397,13 @@
         <v>2188</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4418,13 +4412,13 @@
         <v>968</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4433,19 +4427,19 @@
         <v>3156</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>327</v>
@@ -4454,13 +4448,13 @@
         <v>368814</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" s="7">
         <v>344</v>
@@ -4469,13 +4463,13 @@
         <v>394905</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17" s="7">
         <v>671</v>
@@ -4484,13 +4478,13 @@
         <v>763719</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,13 +4499,13 @@
         <v>371002</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H18" s="7">
         <v>345</v>
@@ -4520,13 +4514,13 @@
         <v>395873</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M18" s="7">
         <v>674</v>
@@ -4535,18 +4529,18 @@
         <v>766875</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4558,13 +4552,13 @@
         <v>913</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4573,13 +4567,13 @@
         <v>2365</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -4588,19 +4582,19 @@
         <v>3278</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>400</v>
@@ -4609,13 +4603,13 @@
         <v>376269</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7">
         <v>428</v>
@@ -4624,13 +4618,13 @@
         <v>502462</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20" s="7">
         <v>828</v>
@@ -4639,13 +4633,13 @@
         <v>878731</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4660,13 +4654,13 @@
         <v>377182</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H21" s="7">
         <v>430</v>
@@ -4675,13 +4669,13 @@
         <v>504827</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M21" s="7">
         <v>831</v>
@@ -4690,13 +4684,13 @@
         <v>882009</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4707,13 @@
         <v>4122</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4728,13 +4722,13 @@
         <v>5926</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -4743,19 +4737,19 @@
         <v>10049</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>2526</v>
@@ -4764,13 +4758,13 @@
         <v>2660212</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H23" s="7">
         <v>2722</v>
@@ -4779,28 +4773,28 @@
         <v>2861389</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>214</v>
+        <v>86</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M23" s="7">
         <v>5248</v>
       </c>
       <c r="N23" s="7">
-        <v>5521599</v>
+        <v>5521600</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>54</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,13 +4809,13 @@
         <v>2664334</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H24" s="7">
         <v>2727</v>
@@ -4830,28 +4824,28 @@
         <v>2867315</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M24" s="7">
         <v>5257</v>
       </c>
       <c r="N24" s="7">
-        <v>5531648</v>
+        <v>5531649</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,7 +4872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321BE757-B8B5-4ABA-AEB6-89102D850619}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75E54FB-F33A-4F34-944B-70291C80A3C2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4895,7 +4889,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5002,13 +4996,13 @@
         <v>4691</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>145</v>
+        <v>213</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -5017,13 +5011,13 @@
         <v>3426</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -5032,19 +5026,19 @@
         <v>8117</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>155</v>
@@ -5053,13 +5047,13 @@
         <v>353067</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>193</v>
@@ -5068,13 +5062,13 @@
         <v>341070</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
         <v>348</v>
@@ -5083,13 +5077,13 @@
         <v>694137</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5098,13 @@
         <v>357758</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" s="7">
         <v>195</v>
@@ -5119,13 +5113,13 @@
         <v>344496</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
         <v>352</v>
@@ -5134,18 +5128,18 @@
         <v>702254</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5157,13 +5151,13 @@
         <v>160</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -5172,13 +5166,13 @@
         <v>1164</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -5187,19 +5181,19 @@
         <v>1325</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>280</v>
@@ -5208,13 +5202,13 @@
         <v>407040</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
         <v>441</v>
@@ -5223,13 +5217,13 @@
         <v>484711</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="7">
         <v>721</v>
@@ -5238,13 +5232,13 @@
         <v>891750</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5253,13 @@
         <v>407200</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H9" s="7">
         <v>442</v>
@@ -5274,13 +5268,13 @@
         <v>485875</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M9" s="7">
         <v>723</v>
@@ -5289,18 +5283,18 @@
         <v>893075</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5312,13 +5306,13 @@
         <v>3690</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>90</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>78</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -5327,13 +5321,13 @@
         <v>3883</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>90</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -5342,19 +5336,19 @@
         <v>7573</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>229</v>
+        <v>90</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
         <v>524</v>
@@ -5363,13 +5357,13 @@
         <v>540665</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="H11" s="7">
         <v>818</v>
@@ -5378,13 +5372,13 @@
         <v>568313</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>236</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>1342</v>
@@ -5393,13 +5387,13 @@
         <v>1108979</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5408,13 @@
         <v>544355</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H12" s="7">
         <v>825</v>
@@ -5429,13 +5423,13 @@
         <v>572196</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M12" s="7">
         <v>1352</v>
@@ -5444,18 +5438,18 @@
         <v>1116552</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5467,13 +5461,13 @@
         <v>1192</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>15</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5482,13 +5476,13 @@
         <v>2596</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -5500,16 +5494,16 @@
         <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
         <v>640</v>
@@ -5518,13 +5512,13 @@
         <v>701402</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7">
         <v>1113</v>
@@ -5533,13 +5527,13 @@
         <v>731211</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>240</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
         <v>1753</v>
@@ -5548,13 +5542,13 @@
         <v>1432613</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,13 +5563,13 @@
         <v>702594</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H15" s="7">
         <v>1117</v>
@@ -5584,13 +5578,13 @@
         <v>733807</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M15" s="7">
         <v>1758</v>
@@ -5599,18 +5593,18 @@
         <v>1436400</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5622,13 +5616,13 @@
         <v>3032</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5637,13 +5631,13 @@
         <v>1034</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -5652,19 +5646,19 @@
         <v>4065</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>147</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="7">
         <v>642</v>
@@ -5673,13 +5667,13 @@
         <v>581738</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H17" s="7">
         <v>978</v>
@@ -5688,28 +5682,28 @@
         <v>581309</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>1620</v>
       </c>
       <c r="N17" s="7">
-        <v>1163049</v>
+        <v>1163048</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5724,13 +5718,13 @@
         <v>584770</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H18" s="7">
         <v>981</v>
@@ -5739,33 +5733,33 @@
         <v>582343</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M18" s="7">
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167114</v>
+        <v>1167113</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5777,13 +5771,13 @@
         <v>3311</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -5795,10 +5789,10 @@
         <v>184</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -5807,19 +5801,19 @@
         <v>6476</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
         <v>997</v>
@@ -5828,13 +5822,13 @@
         <v>677151</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>1652</v>
@@ -5843,13 +5837,13 @@
         <v>994965</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M20" s="7">
         <v>2649</v>
@@ -5858,13 +5852,13 @@
         <v>1672116</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>95</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5879,13 +5873,13 @@
         <v>680462</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H21" s="7">
         <v>1657</v>
@@ -5894,13 +5888,13 @@
         <v>998130</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M21" s="7">
         <v>2659</v>
@@ -5909,13 +5903,13 @@
         <v>1678592</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,13 +5926,13 @@
         <v>16076</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -5947,13 +5941,13 @@
         <v>15267</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>64</v>
       </c>
       <c r="M22" s="7">
         <v>37</v>
@@ -5962,19 +5956,19 @@
         <v>31343</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>27</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
         <v>3238</v>
@@ -5983,13 +5977,13 @@
         <v>3261062</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>83</v>
+        <v>252</v>
       </c>
       <c r="H23" s="7">
         <v>5195</v>
@@ -5998,13 +5992,13 @@
         <v>3701581</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>256</v>
+        <v>69</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M23" s="7">
         <v>8433</v>
@@ -6013,13 +6007,13 @@
         <v>6962643</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>36</v>
+        <v>253</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>98</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6034,13 +6028,13 @@
         <v>3277138</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H24" s="7">
         <v>5217</v>
@@ -6049,13 +6043,13 @@
         <v>3716848</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M24" s="7">
         <v>8470</v>
@@ -6064,13 +6058,13 @@
         <v>6993986</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P19C08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C08-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EDF3BB8-8CB1-4A99-B87F-39A37437EE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{342DFB72-E689-4413-8053-514274D975E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{317DEB5C-7E99-4CC5-B13E-B0AEC84E25DD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9DCF8AF3-8F83-40D4-A324-B33D4A4C96E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="278">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2007 (Tasa respuesta: 78,11%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -104,7 +104,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -161,7 +161,7 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -194,7 +194,7 @@
     <t>99,91%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,45%</t>
@@ -227,7 +227,7 @@
     <t>99,89%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0%</t>
@@ -263,547 +263,616 @@
     <t>98,66%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2016 (Tasa respuesta: 80,03%)</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>0,21%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2012 (Tasa respuesta: 86,8%)</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2016 (Tasa respuesta: 80,03%)</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>Población según si el motivo por su última visita al dentista fue por selladores, aplicación de fluor en 2023 (Tasa respuesta: 96,88%)</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
+    <t>99,75%</t>
   </si>
 </sst>
 </file>
@@ -1215,8 +1284,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A94F526-8B9A-4C02-886E-60D31E8578F7}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE07E74-4DAF-4973-B5C0-83B014003766}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1417,7 +1486,7 @@
         <v>755</v>
       </c>
       <c r="N5" s="7">
-        <v>733714</v>
+        <v>733713</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1468,7 +1537,7 @@
         <v>757</v>
       </c>
       <c r="N6" s="7">
-        <v>735654</v>
+        <v>735653</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>20</v>
@@ -2114,43 +2183,43 @@
         <v>965</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1843</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>4177</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>3</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2808</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5142</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2159,49 +2228,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>348</v>
+        <v>218</v>
       </c>
       <c r="D20" s="7">
-        <v>338564</v>
+        <v>211800</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="7">
-        <v>445</v>
+        <v>265</v>
       </c>
       <c r="I20" s="7">
-        <v>450969</v>
+        <v>245095</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="7">
+        <v>483</v>
+      </c>
+      <c r="N20" s="7">
+        <v>456895</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="M20" s="7">
-        <v>793</v>
-      </c>
-      <c r="N20" s="7">
-        <v>789533</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,10 +2279,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>349</v>
+        <v>219</v>
       </c>
       <c r="D21" s="7">
-        <v>339529</v>
+        <v>212765</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>20</v>
@@ -2225,10 +2294,10 @@
         <v>20</v>
       </c>
       <c r="H21" s="7">
-        <v>449</v>
+        <v>267</v>
       </c>
       <c r="I21" s="7">
-        <v>455146</v>
+        <v>246938</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>20</v>
@@ -2240,10 +2309,10 @@
         <v>20</v>
       </c>
       <c r="M21" s="7">
-        <v>798</v>
+        <v>486</v>
       </c>
       <c r="N21" s="7">
-        <v>794675</v>
+        <v>459703</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>20</v>
@@ -2257,55 +2326,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>8367</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2334</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="7">
-        <v>14</v>
-      </c>
-      <c r="I22" s="7">
-        <v>14810</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2334</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M22" s="7">
-        <v>23</v>
-      </c>
-      <c r="N22" s="7">
-        <v>23177</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2314,49 +2383,49 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>2398</v>
+        <v>130</v>
       </c>
       <c r="D23" s="7">
-        <v>2446375</v>
+        <v>126764</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="7">
+        <v>180</v>
+      </c>
+      <c r="I23" s="7">
+        <v>205874</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="7">
+        <v>310</v>
+      </c>
+      <c r="N23" s="7">
+        <v>332638</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="7">
-        <v>2665</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2726127</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M23" s="7">
-        <v>5063</v>
-      </c>
-      <c r="N23" s="7">
-        <v>5172502</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2365,63 +2434,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>130</v>
+      </c>
+      <c r="D24" s="7">
+        <v>126764</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="7">
+        <v>182</v>
+      </c>
+      <c r="I24" s="7">
+        <v>208208</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="7">
+        <v>312</v>
+      </c>
+      <c r="N24" s="7">
+        <v>334972</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7">
+        <v>8367</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="7">
+        <v>14</v>
+      </c>
+      <c r="I25" s="7">
+        <v>14810</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M25" s="7">
+        <v>23</v>
+      </c>
+      <c r="N25" s="7">
+        <v>23177</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2398</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2446375</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2665</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2726127</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5063</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5172502</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2407</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>2454742</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="7">
         <v>2679</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2740937</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="7">
         <v>5086</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>5195679</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>101</v>
+      <c r="O27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2434,8 +2659,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED7F283-FD16-4000-8527-F4B31E3B7D1A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA2F091F-AAC8-4B54-9C88-340A05E9DA24}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2451,7 +2676,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2564,7 +2789,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -2573,13 +2798,13 @@
         <v>4157</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2591,10 +2816,10 @@
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,7 +2837,7 @@
         <v>31</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>18</v>
@@ -2621,13 +2846,13 @@
         <v>358</v>
       </c>
       <c r="I5" s="7">
-        <v>366833</v>
+        <v>366834</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>16</v>
@@ -2642,10 +2867,10 @@
         <v>19</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,7 +2897,7 @@
         <v>362</v>
       </c>
       <c r="I6" s="7">
-        <v>370990</v>
+        <v>370991</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>20</v>
@@ -2719,7 +2944,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -2728,13 +2953,13 @@
         <v>4948</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -2743,13 +2968,13 @@
         <v>9723</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,7 +2992,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2779,10 +3004,10 @@
         <v>552969</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>46</v>
@@ -2794,13 +3019,13 @@
         <v>1145461</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2874,7 +3099,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2883,13 +3108,13 @@
         <v>5748</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -2901,10 +3126,10 @@
         <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2922,7 +3147,7 @@
         <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>18</v>
@@ -2934,13 +3159,13 @@
         <v>653706</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="M11" s="7">
         <v>1176</v>
@@ -2952,10 +3177,10 @@
         <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3023,13 +3248,13 @@
         <v>4444</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3038,13 +3263,13 @@
         <v>3979</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -3053,13 +3278,13 @@
         <v>8422</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3071,16 +3296,16 @@
         <v>480</v>
       </c>
       <c r="D14" s="7">
-        <v>538396</v>
+        <v>538395</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
         <v>490</v>
@@ -3089,13 +3314,13 @@
         <v>559372</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>970</v>
@@ -3104,13 +3329,13 @@
         <v>1097768</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3122,7 +3347,7 @@
         <v>483</v>
       </c>
       <c r="D15" s="7">
-        <v>542840</v>
+        <v>542839</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>20</v>
@@ -3178,13 +3403,13 @@
         <v>1048</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3199,7 +3424,7 @@
         <v>63</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3208,13 +3433,13 @@
         <v>1048</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,10 +3454,10 @@
         <v>360262</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>18</v>
@@ -3247,7 +3472,7 @@
         <v>18</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>20</v>
@@ -3259,10 +3484,10 @@
         <v>750977</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>18</v>
@@ -3327,19 +3552,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>3924</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3354,22 +3579,22 @@
         <v>63</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>3924</v>
+        <v>1000</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,49 +3603,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>400</v>
+        <v>238</v>
       </c>
       <c r="D20" s="7">
-        <v>443492</v>
+        <v>261490</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7">
-        <v>562</v>
+        <v>289</v>
       </c>
       <c r="I20" s="7">
-        <v>600962</v>
+        <v>298549</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="7">
-        <v>962</v>
+        <v>527</v>
       </c>
       <c r="N20" s="7">
-        <v>1044454</v>
+        <v>560039</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3429,10 +3654,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>404</v>
+        <v>239</v>
       </c>
       <c r="D21" s="7">
-        <v>447416</v>
+        <v>262490</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>20</v>
@@ -3444,10 +3669,10 @@
         <v>20</v>
       </c>
       <c r="H21" s="7">
-        <v>562</v>
+        <v>289</v>
       </c>
       <c r="I21" s="7">
-        <v>600962</v>
+        <v>298549</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>20</v>
@@ -3459,10 +3684,10 @@
         <v>20</v>
       </c>
       <c r="M21" s="7">
-        <v>966</v>
+        <v>528</v>
       </c>
       <c r="N21" s="7">
-        <v>1048378</v>
+        <v>561039</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>20</v>
@@ -3476,55 +3701,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>18043</v>
+        <v>2925</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H22" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>18832</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="M22" s="7">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>36875</v>
+        <v>2925</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,49 +3758,49 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>2720</v>
+        <v>162</v>
       </c>
       <c r="D23" s="7">
-        <v>2896615</v>
+        <v>182001</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="H23" s="7">
-        <v>2894</v>
+        <v>273</v>
       </c>
       <c r="I23" s="7">
-        <v>3124556</v>
+        <v>302413</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="M23" s="7">
-        <v>5614</v>
+        <v>435</v>
       </c>
       <c r="N23" s="7">
-        <v>6021172</v>
+        <v>484414</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,63 +3809,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>165</v>
+      </c>
+      <c r="D24" s="7">
+        <v>184926</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="7">
+        <v>273</v>
+      </c>
+      <c r="I24" s="7">
+        <v>302413</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="7">
+        <v>438</v>
+      </c>
+      <c r="N24" s="7">
+        <v>487339</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>16</v>
+      </c>
+      <c r="D25" s="7">
+        <v>18043</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="7">
+        <v>18</v>
+      </c>
+      <c r="I25" s="7">
+        <v>18832</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="M25" s="7">
+        <v>34</v>
+      </c>
+      <c r="N25" s="7">
+        <v>36875</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2720</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2896616</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2894</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3124557</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5614</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6021172</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2736</v>
       </c>
-      <c r="D24" s="7">
-        <v>2914658</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2914659</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="7">
         <v>2912</v>
       </c>
-      <c r="I24" s="7">
-        <v>3143388</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3143389</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="7">
         <v>5648</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6058047</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>101</v>
+      <c r="O27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3653,8 +4034,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB4AEED-B64D-47CF-8780-9B9839E59C9D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEC8EDB-B358-462F-9616-81ED583A5C6C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3670,7 +4051,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3783,7 +4164,7 @@
         <v>63</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3798,7 +4179,7 @@
         <v>63</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3813,7 +4194,7 @@
         <v>63</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,7 +4212,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>20</v>
@@ -3846,7 +4227,7 @@
         <v>18</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>20</v>
@@ -3861,7 +4242,7 @@
         <v>18</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>20</v>
@@ -3938,7 +4319,7 @@
         <v>63</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3953,7 +4334,7 @@
         <v>63</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3968,7 +4349,7 @@
         <v>63</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,7 +4367,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>20</v>
@@ -4001,7 +4382,7 @@
         <v>18</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>20</v>
@@ -4016,7 +4397,7 @@
         <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>20</v>
@@ -4087,13 +4468,13 @@
         <v>1022</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4108,7 +4489,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4117,13 +4498,13 @@
         <v>3614</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,10 +4519,10 @@
         <v>556838</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>18</v>
@@ -4156,7 +4537,7 @@
         <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>18</v>
@@ -4168,10 +4549,10 @@
         <v>1127326</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>50</v>
@@ -4248,7 +4629,7 @@
         <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4263,7 +4644,7 @@
         <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4278,7 +4659,7 @@
         <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,7 +4677,7 @@
         <v>18</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>20</v>
@@ -4311,7 +4692,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>20</v>
@@ -4326,7 +4707,7 @@
         <v>18</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>20</v>
@@ -4397,13 +4778,13 @@
         <v>2188</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -4412,13 +4793,13 @@
         <v>968</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -4427,13 +4808,13 @@
         <v>3156</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,10 +4829,10 @@
         <v>368814</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>18</v>
@@ -4463,10 +4844,10 @@
         <v>394905</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>18</v>
@@ -4478,13 +4859,13 @@
         <v>763719</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,43 +4933,43 @@
         <v>913</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>2365</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>913</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3278</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>155</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,49 +4978,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>400</v>
+        <v>225</v>
       </c>
       <c r="D20" s="7">
-        <v>376269</v>
+        <v>229212</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="H20" s="7">
-        <v>428</v>
+        <v>260</v>
       </c>
       <c r="I20" s="7">
-        <v>502462</v>
+        <v>276948</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="7">
+        <v>485</v>
+      </c>
+      <c r="N20" s="7">
+        <v>506161</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="M20" s="7">
-        <v>828</v>
-      </c>
-      <c r="N20" s="7">
-        <v>878731</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,10 +5029,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>401</v>
+        <v>226</v>
       </c>
       <c r="D21" s="7">
-        <v>377182</v>
+        <v>230125</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>20</v>
@@ -4663,10 +5044,10 @@
         <v>20</v>
       </c>
       <c r="H21" s="7">
-        <v>430</v>
+        <v>260</v>
       </c>
       <c r="I21" s="7">
-        <v>504827</v>
+        <v>276948</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>20</v>
@@ -4678,10 +5059,10 @@
         <v>20</v>
       </c>
       <c r="M21" s="7">
-        <v>831</v>
+        <v>486</v>
       </c>
       <c r="N21" s="7">
-        <v>882009</v>
+        <v>507074</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>20</v>
@@ -4695,55 +5076,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>4122</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="H22" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>5926</v>
+        <v>2365</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="M22" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>10049</v>
+        <v>2365</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,49 +5133,49 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>2526</v>
+        <v>175</v>
       </c>
       <c r="D23" s="7">
-        <v>2660212</v>
+        <v>147057</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="H23" s="7">
-        <v>2722</v>
+        <v>168</v>
       </c>
       <c r="I23" s="7">
-        <v>2861389</v>
+        <v>225514</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="M23" s="7">
-        <v>5248</v>
+        <v>343</v>
       </c>
       <c r="N23" s="7">
-        <v>5521600</v>
+        <v>372571</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,63 +5184,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>175</v>
+      </c>
+      <c r="D24" s="7">
+        <v>147057</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="7">
+        <v>170</v>
+      </c>
+      <c r="I24" s="7">
+        <v>227879</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="7">
+        <v>345</v>
+      </c>
+      <c r="N24" s="7">
+        <v>374936</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4122</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="H25" s="7">
+        <v>5</v>
+      </c>
+      <c r="I25" s="7">
+        <v>5926</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" s="7">
+        <v>9</v>
+      </c>
+      <c r="N25" s="7">
+        <v>10049</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2526</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2660211</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2722</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2861389</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5248</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5521599</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>2530</v>
       </c>
-      <c r="D24" s="7">
-        <v>2664334</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>2664333</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="7">
         <v>2727</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2867315</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="7">
         <v>5257</v>
       </c>
-      <c r="N24" s="7">
-        <v>5531649</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>101</v>
+      <c r="N27" s="7">
+        <v>5531648</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4872,8 +5409,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75E54FB-F33A-4F34-944B-70291C80A3C2}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3902561-284E-4B22-B422-1E07657FD29E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4889,7 +5426,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4993,46 +5530,46 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>4691</v>
+        <v>4732</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>3426</v>
+        <v>2887</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>8117</v>
+        <v>7619</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5581,13 @@
         <v>155</v>
       </c>
       <c r="D5" s="7">
-        <v>353067</v>
+        <v>378715</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>18</v>
@@ -5059,13 +5596,13 @@
         <v>193</v>
       </c>
       <c r="I5" s="7">
-        <v>341070</v>
+        <v>300654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>18</v>
@@ -5074,16 +5611,16 @@
         <v>348</v>
       </c>
       <c r="N5" s="7">
-        <v>694137</v>
+        <v>679369</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,7 +5632,7 @@
         <v>157</v>
       </c>
       <c r="D6" s="7">
-        <v>357758</v>
+        <v>383447</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
@@ -5110,7 +5647,7 @@
         <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>344496</v>
+        <v>303541</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>20</v>
@@ -5125,7 +5662,7 @@
         <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>702254</v>
+        <v>686988</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>20</v>
@@ -5148,46 +5685,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>1164</v>
+        <v>1045</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>1325</v>
+        <v>1209</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5736,13 @@
         <v>280</v>
       </c>
       <c r="D8" s="7">
-        <v>407040</v>
+        <v>402187</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>105</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -5214,13 +5751,13 @@
         <v>441</v>
       </c>
       <c r="I8" s="7">
-        <v>484711</v>
+        <v>498647</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>18</v>
@@ -5229,13 +5766,13 @@
         <v>721</v>
       </c>
       <c r="N8" s="7">
-        <v>891750</v>
+        <v>900833</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>95</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -5250,7 +5787,7 @@
         <v>281</v>
       </c>
       <c r="D9" s="7">
-        <v>407200</v>
+        <v>402351</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>20</v>
@@ -5265,7 +5802,7 @@
         <v>442</v>
       </c>
       <c r="I9" s="7">
-        <v>485875</v>
+        <v>499692</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>20</v>
@@ -5280,7 +5817,7 @@
         <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>893075</v>
+        <v>902042</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>20</v>
@@ -5303,46 +5840,46 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>3690</v>
+        <v>3380</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>3883</v>
+        <v>3578</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>90</v>
+        <v>247</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>29</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>7573</v>
+        <v>6958</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,28 +5891,28 @@
         <v>524</v>
       </c>
       <c r="D11" s="7">
-        <v>540665</v>
+        <v>520662</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="H11" s="7">
         <v>818</v>
       </c>
       <c r="I11" s="7">
-        <v>568313</v>
+        <v>528303</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>39</v>
@@ -5384,16 +5921,16 @@
         <v>1342</v>
       </c>
       <c r="N11" s="7">
-        <v>1108979</v>
+        <v>1048965</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,7 +5942,7 @@
         <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>544355</v>
+        <v>524042</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>20</v>
@@ -5420,7 +5957,7 @@
         <v>825</v>
       </c>
       <c r="I12" s="7">
-        <v>572196</v>
+        <v>531881</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>20</v>
@@ -5435,7 +5972,7 @@
         <v>1352</v>
       </c>
       <c r="N12" s="7">
-        <v>1116552</v>
+        <v>1055923</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>20</v>
@@ -5458,46 +5995,46 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>1192</v>
+        <v>958</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>226</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>2596</v>
+        <v>2371</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>3787</v>
+        <v>3329</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5509,13 +6046,13 @@
         <v>640</v>
       </c>
       <c r="D14" s="7">
-        <v>701402</v>
+        <v>861970</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -5524,31 +6061,31 @@
         <v>1113</v>
       </c>
       <c r="I14" s="7">
-        <v>731211</v>
+        <v>698221</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="M14" s="7">
         <v>1753</v>
       </c>
       <c r="N14" s="7">
-        <v>1432613</v>
+        <v>1560190</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,7 +6097,7 @@
         <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>702594</v>
+        <v>862928</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>20</v>
@@ -5575,7 +6112,7 @@
         <v>1117</v>
       </c>
       <c r="I15" s="7">
-        <v>733807</v>
+        <v>700592</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>20</v>
@@ -5590,7 +6127,7 @@
         <v>1758</v>
       </c>
       <c r="N15" s="7">
-        <v>1436400</v>
+        <v>1563519</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>20</v>
@@ -5613,46 +6150,46 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>3032</v>
+        <v>2771</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>1034</v>
+        <v>925</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>233</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>4065</v>
+        <v>3697</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>155</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +6201,13 @@
         <v>642</v>
       </c>
       <c r="D17" s="7">
-        <v>581738</v>
+        <v>543808</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>36</v>
@@ -5679,31 +6216,31 @@
         <v>978</v>
       </c>
       <c r="I17" s="7">
-        <v>581309</v>
+        <v>533601</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>235</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="M17" s="7">
         <v>1620</v>
       </c>
       <c r="N17" s="7">
-        <v>1163048</v>
+        <v>1077408</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>160</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,7 +6252,7 @@
         <v>645</v>
       </c>
       <c r="D18" s="7">
-        <v>584770</v>
+        <v>546579</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>20</v>
@@ -5730,7 +6267,7 @@
         <v>981</v>
       </c>
       <c r="I18" s="7">
-        <v>582343</v>
+        <v>534526</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>20</v>
@@ -5745,7 +6282,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167113</v>
+        <v>1081105</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>20</v>
@@ -5765,49 +6302,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>3311</v>
+        <v>1628</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>237</v>
+        <v>52</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>3165</v>
+        <v>1662</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="M19" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>6476</v>
+        <v>3290</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,49 +6353,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>997</v>
+        <v>553</v>
       </c>
       <c r="D20" s="7">
-        <v>677151</v>
+        <v>357725</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="H20" s="7">
-        <v>1652</v>
+        <v>804</v>
       </c>
       <c r="I20" s="7">
-        <v>994965</v>
+        <v>598247</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="M20" s="7">
-        <v>2649</v>
+        <v>1357</v>
       </c>
       <c r="N20" s="7">
-        <v>1672116</v>
+        <v>955972</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>189</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,10 +6404,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1002</v>
+        <v>556</v>
       </c>
       <c r="D21" s="7">
-        <v>680462</v>
+        <v>359353</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>20</v>
@@ -5882,10 +6419,10 @@
         <v>20</v>
       </c>
       <c r="H21" s="7">
-        <v>1657</v>
+        <v>807</v>
       </c>
       <c r="I21" s="7">
-        <v>998130</v>
+        <v>599909</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>20</v>
@@ -5897,10 +6434,10 @@
         <v>20</v>
       </c>
       <c r="M21" s="7">
-        <v>2659</v>
+        <v>1363</v>
       </c>
       <c r="N21" s="7">
-        <v>1678592</v>
+        <v>959262</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>20</v>
@@ -5914,55 +6451,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>16076</v>
+        <v>1350</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="H22" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>15267</v>
+        <v>1061</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>64</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="N22" s="7">
-        <v>31343</v>
+        <v>2412</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>251</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,49 +6508,49 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>3238</v>
+        <v>444</v>
       </c>
       <c r="D23" s="7">
-        <v>3261062</v>
+        <v>274171</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>252</v>
+        <v>18</v>
       </c>
       <c r="H23" s="7">
-        <v>5195</v>
+        <v>848</v>
       </c>
       <c r="I23" s="7">
-        <v>3701581</v>
+        <v>407626</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>69</v>
+        <v>273</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M23" s="7">
-        <v>8433</v>
+        <v>1292</v>
       </c>
       <c r="N23" s="7">
-        <v>6962643</v>
+        <v>681796</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>253</v>
+        <v>127</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>254</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,63 +6559,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>446</v>
+      </c>
+      <c r="D24" s="7">
+        <v>275521</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="7">
+        <v>850</v>
+      </c>
+      <c r="I24" s="7">
+        <v>408687</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1296</v>
+      </c>
+      <c r="N24" s="7">
+        <v>684208</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>15</v>
+      </c>
+      <c r="D25" s="7">
+        <v>14985</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H25" s="7">
+        <v>22</v>
+      </c>
+      <c r="I25" s="7">
+        <v>13529</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M25" s="7">
+        <v>37</v>
+      </c>
+      <c r="N25" s="7">
+        <v>28514</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3238</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3339236</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5195</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3565298</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8433</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6904534</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3253</v>
       </c>
-      <c r="D24" s="7">
-        <v>3277138</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3354221</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="7">
         <v>5217</v>
       </c>
-      <c r="I24" s="7">
-        <v>3716848</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3578827</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="7">
         <v>8470</v>
       </c>
-      <c r="N24" s="7">
-        <v>6993986</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>101</v>
+      <c r="N27" s="7">
+        <v>6933048</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
